--- a/biology/Botanique/Sphaerosepalaceae/Sphaerosepalaceae.xlsx
+++ b/biology/Botanique/Sphaerosepalaceae/Sphaerosepalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Sphaerosepalaceae regroupe des plantes dicotylédones ; elle comprend moins de vingt espèces réparties en 2 genres.
 Ce sont des arbres ou des arbustes, à feuilles caduques, des régions tropicales, endémiques de Madagascar.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de l'ancien genre type Sphaerosepalum, du grec σφαίρα / sphaira, « globe, sphère », et du latin sepalum, sépale (grec σκέπη / skepe, couverture)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de l'ancien genre type Sphaerosepalum, du grec σφαίρα / sphaira, « globe, sphère », et du latin sepalum, sépale (grec σκέπη / skepe, couverture). 
 Ce genre type a été abandonné au profit de Rhopalocarpus, du grec ροπαλο / ropalo, « qui ressemble à une massue » et καρπυ / karpy, fruit, littéralement « fruit en forme de massue », en référence à la forme des capsules.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille fut précédemment nommée Rhopalocarpaceae 	Takht., 1987.
 La classification phylogénétique situe cette famille dans l'ordre des Malvales.
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (22 juin 2010)[2], NCBI  (22 juin 2010)[3] et DELTA Angio           (22 juin 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (22 juin 2010), NCBI  (22 juin 2010) et DELTA Angio           (22 juin 2010) :
 Dialyceras (en)
 Rhopalocarpus (en)</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 juin 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 juin 2010) :
 genre Dialyceras
 Dialyceras coriaceum
 Dialyceras parvifolium
